--- a/biology/Histoire de la zoologie et de la botanique/George_Claridge_Druce/George_Claridge_Druce.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Claridge_Druce/George_Claridge_Druce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Claridge Druce est un naturaliste britannique, né le 23 mai 1850 à Potterspury, Northamptonshire et mort le 29 février 1932.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il étudie à Oxford où il obtient son Master of Arts et son Doctorat of Sciences. Il devient le conservateur de l’herbier de l'université d'Oxford. Membre de diverses sociétés savantes dont la Royal Society en 1927. Il devint maire d'Oxford en 1900.
 Druce est notamment l’auteur de :
